--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Verif_FIBMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CB8213-3552-4064-BED2-9ED47B89208E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DE9DC7-DC70-4C24-AC52-28A71C0B30EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="22455" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="1080" windowWidth="22455" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -482,7 +482,7 @@
         <v>0.5</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>50</v>
